--- a/Spreadsheet Applications/Using Functions, Creating Tables, and Managing Large Workbooks/Tree Inventory.xlsx
+++ b/Spreadsheet Applications/Using Functions, Creating Tables, and Managing Large Workbooks/Tree Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Using Functions^J Creating Tables^J and Managing Large Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_F412DEF72157777AD9225100F20AB52B1D68CF96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183DD77A-9181-4A3C-A306-EE1C17C02AC8}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_F412DEF72157777AD9225100F20AB52B1D68CF96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDA4994-4DB2-4478-9C60-3EA345927AE3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree Inventory" sheetId="1" r:id="rId1"/>
@@ -330,17 +330,17 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i/>
         <color theme="9"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,10 +359,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78651A34-7410-4DBA-8082-0A75AD273EEC}" name="Table1" displayName="Table1" ref="A13:H42">
   <autoFilter ref="A13:H42" xr:uid="{78651A34-7410-4DBA-8082-0A75AD273EEC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1B9CC5D0-8916-4138-A232-26629EFBC57A}" name="Quantity in Stock" totalsRowFunction="sum" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1B9CC5D0-8916-4138-A232-26629EFBC57A}" name="Quantity in Stock" totalsRowFunction="sum" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B6A674F1-576E-4E68-B77D-4721835E668D}" name="Item #"/>
     <tableColumn id="3" xr3:uid="{AEA58BD1-39A2-496C-AEA8-FA82E607F58D}" name="Tree Name"/>
-    <tableColumn id="4" xr3:uid="{60AB5FB1-A5E9-4628-B6E7-6681B8840D38}" name="Retail Price" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{60AB5FB1-A5E9-4628-B6E7-6681B8840D38}" name="Retail Price" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{2109B61C-EE80-426E-8D7E-81850B6EEDBA}" name="Light"/>
     <tableColumn id="6" xr3:uid="{7F312C3B-6B3C-42AE-AFA1-8F887C33AAC6}" name="Landscape Use"/>
     <tableColumn id="7" xr3:uid="{3997216E-557C-4815-8185-CC0E3C7234AF}" name="Category"/>
@@ -642,7 +642,7 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1564,23 +1564,6 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H14:H42">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B3FCAE1-1308-4338-AAC8-0800D880E571}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Order">
-      <formula>NOT(ISERROR(SEARCH("Order",H14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:A42">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1595,14 +1578,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H42">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8B3FCAE1-1308-4338-AAC8-0800D880E571}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Order">
+      <formula>NOT(ISERROR(SEARCH("Order",H14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70CB6F85-5E72-4DEC-9340-D1E2818692A1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A14:A42</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B3FCAE1-1308-4338-AAC8-0800D880E571}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -1616,19 +1632,6 @@
           </x14:cfRule>
           <xm:sqref>H14:H42</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70CB6F85-5E72-4DEC-9340-D1E2818692A1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A14:A42</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
